--- a/Magallanes - Indicadores.xlsx
+++ b/Magallanes - Indicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -844,9 +844,6 @@
     <t>UCAYALIPADRE ABAD</t>
   </si>
   <si>
-    <t>DEPARTAMENTO</t>
-  </si>
-  <si>
     <t>AMAZONASBONGARA</t>
   </si>
   <si>
@@ -1117,9 +1114,6 @@
     <t>UCAYALIPURUS</t>
   </si>
   <si>
-    <t xml:space="preserve">PROVINCIA  </t>
-  </si>
-  <si>
     <t>Ferrenafe</t>
   </si>
   <si>
@@ -1283,6 +1277,12 @@
   </si>
   <si>
     <t>Código</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia </t>
   </si>
 </sst>
 </file>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,16 +2107,16 @@
         <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>419</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,13 +2138,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D3">
         <v>1608</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D11">
         <v>1664</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2393,10 +2393,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -2614,10 +2614,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D37">
         <v>1613</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D38">
         <v>1201</v>
@@ -2818,13 +2818,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D43">
         <v>2068</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -2988,13 +2988,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
         <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D53">
         <v>3838</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D54">
         <v>3982</v>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D57">
         <v>10266</v>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D59">
         <v>2126</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B62" t="s">
         <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D62">
         <v>13984</v>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D73">
         <v>11347</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D76">
         <v>14799</v>
@@ -3549,13 +3549,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
         <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D86">
         <v>2106</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C88" t="s">
         <v>82</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C89" t="s">
         <v>83</v>
@@ -3617,10 +3617,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C90" t="s">
         <v>84</v>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D91">
         <v>6366</v>
@@ -3651,13 +3651,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D92">
         <v>28605</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C93" t="s">
         <v>85</v>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s">
         <v>86</v>
@@ -3702,13 +3702,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B95" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D95">
         <v>3541</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
         <v>87</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B97" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
         <v>88</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C98" t="s">
         <v>89</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B104" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C104" t="s">
         <v>95</v>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C105" t="s">
         <v>96</v>
@@ -3889,13 +3889,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C106" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D106">
         <v>4042</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B107" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C107" t="s">
         <v>97</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B108" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C108" t="s">
         <v>98</v>
@@ -3940,13 +3940,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B109" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C109" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D109">
         <v>2714</v>
@@ -3957,10 +3957,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C110" t="s">
         <v>99</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C111" t="s">
         <v>100</v>
@@ -3991,10 +3991,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B112" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C112" t="s">
         <v>101</v>
@@ -4025,13 +4025,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B114" t="s">
         <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D114">
         <v>1241</v>
@@ -4042,13 +4042,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B115" t="s">
         <v>102</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D115">
         <v>3971</v>
@@ -4059,13 +4059,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B116" t="s">
         <v>102</v>
       </c>
       <c r="C116" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D116">
         <v>2483</v>
@@ -4076,13 +4076,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B117" t="s">
         <v>102</v>
       </c>
       <c r="C117" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D117">
         <v>3445</v>
@@ -4144,13 +4144,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
         <v>102</v>
       </c>
       <c r="C121" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D121">
         <v>22134</v>
@@ -4195,13 +4195,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B124" t="s">
         <v>102</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D124">
         <v>4212</v>
@@ -4229,13 +4229,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B126" t="s">
         <v>109</v>
       </c>
       <c r="C126" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D126">
         <v>8959</v>
@@ -4297,13 +4297,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B130" t="s">
         <v>111</v>
       </c>
       <c r="C130" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D130">
         <v>5389</v>
@@ -4348,13 +4348,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B133" t="s">
         <v>111</v>
       </c>
       <c r="C133" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D133">
         <v>1593</v>
@@ -4399,13 +4399,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B136" t="s">
         <v>111</v>
       </c>
       <c r="C136" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D136">
         <v>998</v>
@@ -4450,13 +4450,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B139" t="s">
         <v>118</v>
       </c>
       <c r="C139" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D139">
         <v>4675</v>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B141" t="s">
         <v>118</v>
       </c>
       <c r="C141" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D141">
         <v>2976</v>
@@ -4603,13 +4603,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B148" t="s">
         <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D148">
         <v>1347</v>
@@ -4654,13 +4654,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B151" t="s">
         <v>130</v>
       </c>
       <c r="C151" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D151">
         <v>3942</v>
@@ -4739,13 +4739,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B156" t="s">
         <v>132</v>
       </c>
       <c r="C156" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D156">
         <v>14813</v>
@@ -4858,13 +4858,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B163" t="s">
         <v>140</v>
       </c>
       <c r="C163" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D163">
         <v>15143</v>
@@ -4926,13 +4926,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B167" t="s">
         <v>140</v>
       </c>
       <c r="C167" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D167">
         <v>9609</v>
@@ -5028,13 +5028,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" t="s">
         <v>140</v>
       </c>
       <c r="C173" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D173">
         <v>9562</v>
@@ -5079,10 +5079,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C176" t="s">
         <v>150</v>
@@ -5096,10 +5096,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C177" t="s">
         <v>151</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B178" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C178" t="s">
         <v>152</v>
@@ -5130,10 +5130,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B179" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C179" t="s">
         <v>153</v>
@@ -5147,13 +5147,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B180" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C180" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D180">
         <v>2046</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C181" t="s">
         <v>154</v>
@@ -5181,10 +5181,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C182" t="s">
         <v>155</v>
@@ -5198,10 +5198,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C183" t="s">
         <v>156</v>
@@ -5215,13 +5215,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B184" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C184" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D184">
         <v>3909</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B185" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C185" t="s">
         <v>157</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B196" t="s">
         <v>122</v>
       </c>
       <c r="C196" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D196">
         <v>421</v>
@@ -5444,7 +5444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5459,13 +5459,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -5474,21 +5474,21 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" t="s">
         <v>407</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>408</v>
-      </c>
-      <c r="I1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5503,21 +5503,21 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I2" t="s">
         <v>412</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>413</v>
-      </c>
-      <c r="I2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -5532,16 +5532,16 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J3" t="s">
         <v>413</v>
-      </c>
-      <c r="I3" t="s">
-        <v>414</v>
-      </c>
-      <c r="J3" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
